--- a/Buch/Zeitplanung.xlsx
+++ b/Buch/Zeitplanung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Buch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE50312-F2F5-4FFF-9E8A-82964EDDCBAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757DE148-8906-464B-B50C-47F58D8ED2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F2E8FC1-35BF-4896-8BF7-A2F8537EDB2C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Alexander Schauer</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>175h</t>
+  </si>
+  <si>
+    <t>hansi</t>
   </si>
 </sst>
 </file>
@@ -490,10 +493,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,33 +544,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -858,268 +863,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8F039B-AE83-4F66-869E-AA40BE7D7B3B}">
-  <dimension ref="B1:AJ32"/>
+  <dimension ref="B1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="24" width="3" customWidth="1"/>
-    <col min="25" max="35" width="3" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="23" width="3" customWidth="1"/>
+    <col min="24" max="34" width="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-      <c r="AB2" s="21"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="21"/>
-      <c r="AE2" s="21"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="22"/>
-    </row>
-    <row r="3" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="35"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="36"/>
+    </row>
+    <row r="3" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="39" t="s">
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="39" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="39" t="s">
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="39" t="s">
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="39" t="s">
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="39" t="s">
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="39" t="s">
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="4" t="s">
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="6">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2">
         <v>42</v>
       </c>
+      <c r="E4" s="6">
+        <v>43</v>
+      </c>
       <c r="F4" s="3">
-        <v>43</v>
-      </c>
-      <c r="G4" s="2">
         <v>44</v>
       </c>
+      <c r="G4" s="6">
+        <v>45</v>
+      </c>
       <c r="H4" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I4" s="6">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4" s="6">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M4" s="6">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N4" s="3">
-        <v>51</v>
-      </c>
-      <c r="O4" s="6">
         <v>52</v>
       </c>
-      <c r="P4" s="3">
+      <c r="O4" s="3">
         <v>1</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="P4" s="6">
         <v>2</v>
       </c>
-      <c r="R4" s="3">
+      <c r="Q4" s="3">
         <v>3</v>
       </c>
-      <c r="S4" s="6">
+      <c r="R4" s="6">
         <v>4</v>
       </c>
-      <c r="T4" s="3">
+      <c r="S4" s="3">
         <v>5</v>
       </c>
-      <c r="U4" s="6">
+      <c r="T4" s="6">
         <v>6</v>
       </c>
-      <c r="V4" s="3">
+      <c r="U4" s="3">
         <v>7</v>
       </c>
-      <c r="W4" s="6">
+      <c r="V4" s="6">
         <v>8</v>
       </c>
-      <c r="X4" s="3">
+      <c r="W4" s="3">
         <v>9</v>
       </c>
-      <c r="Y4" s="6">
+      <c r="X4" s="6">
         <v>10</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Y4" s="3">
         <v>11</v>
       </c>
-      <c r="AA4" s="6">
+      <c r="Z4" s="6">
         <v>12</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AA4" s="3">
         <v>13</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AB4" s="6">
         <v>14</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AC4" s="3">
         <v>15</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AD4" s="6">
         <v>16</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AE4" s="3">
         <v>17</v>
       </c>
-      <c r="AG4" s="6">
+      <c r="AF4" s="6">
         <v>18</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AG4" s="3">
         <v>19</v>
       </c>
-      <c r="AI4" s="6">
+      <c r="AH4" s="6">
         <v>20</v>
       </c>
-      <c r="AJ4" s="4"/>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AI4" s="4"/>
+      <c r="AQ4" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="40"/>
+    </row>
+    <row r="5" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="32"/>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="9"/>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="9"/>
+    </row>
+    <row r="6" spans="2:46" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1127,8 +1133,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="29"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1149,20 +1155,19 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="4"/>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH6" s="8"/>
+      <c r="AI6" s="4"/>
+    </row>
+    <row r="7" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
@@ -1188,32 +1193,31 @@
       <c r="AE7" s="15"/>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="10"/>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="10"/>
+    </row>
+    <row r="8" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="33"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1227,11 +1231,10 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="10"/>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="10"/>
+    </row>
+    <row r="9" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1247,12 +1250,12 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1266,11 +1269,10 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="10"/>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH9" s="8"/>
+      <c r="AI9" s="10"/>
+    </row>
+    <row r="10" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1280,12 +1282,12 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1305,11 +1307,10 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="10"/>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="10"/>
+    </row>
+    <row r="11" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
@@ -1328,12 +1329,12 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1344,11 +1345,10 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="10"/>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="10"/>
+    </row>
+    <row r="12" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
@@ -1360,34 +1360,33 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="10"/>
-    </row>
-    <row r="13" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="10"/>
+    </row>
+    <row r="13" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
@@ -1395,13 +1394,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="29"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -1410,11 +1409,11 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="29"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="29"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -1422,12 +1421,11 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="8"/>
-      <c r="AJ13" s="10"/>
-    </row>
-    <row r="14" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="35" t="s">
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="10"/>
+    </row>
+    <row r="14" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="13"/>
@@ -1435,13 +1433,13 @@
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="30"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="14"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
@@ -1450,160 +1448,156 @@
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="30"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="30"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="11"/>
-    </row>
-    <row r="15" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="17" t="s">
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="41"/>
+      <c r="AI14" s="11"/>
+    </row>
+    <row r="15" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="28"/>
+      <c r="C15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="42" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="30"/>
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="30"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="30"/>
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+    <row r="18" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-      <c r="AC19" s="21"/>
-      <c r="AD19" s="21"/>
-      <c r="AE19" s="21"/>
-      <c r="AF19" s="21"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
-      <c r="AI19" s="21"/>
-      <c r="AJ19" s="22"/>
-    </row>
-    <row r="20" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="36"/>
+    </row>
+    <row r="20" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24" t="s">
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24" t="s">
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24" t="s">
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24" t="s">
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24" t="s">
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24" t="s">
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="38"/>
+      <c r="AE20" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="4" t="s">
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
@@ -1631,92 +1625,89 @@
       <c r="J21" s="3">
         <v>47</v>
       </c>
-      <c r="K21" s="6">
-        <v>48</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="K21" s="3">
         <v>49</v>
       </c>
-      <c r="M21" s="6">
+      <c r="L21" s="6">
         <v>50</v>
       </c>
-      <c r="N21" s="3">
+      <c r="M21" s="3">
         <v>51</v>
       </c>
-      <c r="O21" s="6">
+      <c r="N21" s="6">
         <v>52</v>
       </c>
-      <c r="P21" s="3">
+      <c r="O21" s="3">
         <v>1</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="P21" s="6">
         <v>2</v>
       </c>
-      <c r="R21" s="3">
+      <c r="Q21" s="3">
         <v>3</v>
       </c>
-      <c r="S21" s="6">
+      <c r="R21" s="6">
         <v>4</v>
       </c>
-      <c r="T21" s="3">
+      <c r="S21" s="3">
         <v>5</v>
       </c>
-      <c r="U21" s="6">
+      <c r="T21" s="6">
         <v>6</v>
       </c>
-      <c r="V21" s="3">
+      <c r="U21" s="3">
         <v>7</v>
       </c>
-      <c r="W21" s="6">
+      <c r="V21" s="6">
         <v>8</v>
       </c>
-      <c r="X21" s="3">
+      <c r="W21" s="3">
         <v>9</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="X21" s="6">
         <v>10</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Y21" s="3">
         <v>11</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="Z21" s="6">
         <v>12</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AA21" s="3">
         <v>13</v>
       </c>
-      <c r="AC21" s="6">
+      <c r="AB21" s="6">
         <v>14</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AC21" s="3">
         <v>15</v>
       </c>
-      <c r="AE21" s="6">
+      <c r="AD21" s="6">
         <v>16</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AE21" s="3">
         <v>17</v>
       </c>
-      <c r="AG21" s="6">
+      <c r="AF21" s="6">
         <v>18</v>
       </c>
-      <c r="AH21" s="3">
+      <c r="AG21" s="3">
         <v>19</v>
       </c>
-      <c r="AI21" s="6">
+      <c r="AH21" s="6">
         <v>20</v>
       </c>
-      <c r="AJ21" s="4"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="15"/>
@@ -1743,20 +1734,19 @@
       <c r="AE22" s="15"/>
       <c r="AF22" s="15"/>
       <c r="AG22" s="15"/>
-      <c r="AH22" s="15"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="9"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="9"/>
+    </row>
+    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1782,21 +1772,20 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="10"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="10"/>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1821,11 +1810,10 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="10"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="10"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
@@ -1834,11 +1822,11 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -1860,11 +1848,10 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="10"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="10"/>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
@@ -1873,14 +1860,14 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1899,11 +1886,10 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="10"/>
-    </row>
-    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="10"/>
+    </row>
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
@@ -1916,17 +1902,17 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -1938,11 +1924,10 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="10"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="10"/>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>17</v>
       </c>
@@ -1961,12 +1946,12 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
@@ -1977,11 +1962,10 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="10"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="10"/>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>18</v>
       </c>
@@ -1996,18 +1980,18 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
@@ -2016,11 +2000,10 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="10"/>
-    </row>
-    <row r="30" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="10"/>
+    </row>
+    <row r="30" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="5" t="s">
         <v>19</v>
       </c>
@@ -2028,13 +2011,13 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="20"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="29"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -2043,11 +2026,11 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="29"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="1"/>
       <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="29"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -2055,12 +2038,11 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="10"/>
-    </row>
-    <row r="31" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="35" t="s">
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="10"/>
+    </row>
+    <row r="31" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="13"/>
@@ -2068,13 +2050,13 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="30"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
@@ -2083,86 +2065,84 @@
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="30"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="30"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
-      <c r="AG31" s="14"/>
-      <c r="AH31" s="30"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="11"/>
-    </row>
-    <row r="32" spans="2:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="36"/>
-      <c r="C32" s="17" t="s">
+      <c r="AG31" s="21"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="11"/>
+    </row>
+    <row r="32" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18"/>
-      <c r="AB32" s="18"/>
-      <c r="AC32" s="18"/>
-      <c r="AD32" s="18"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="18"/>
-      <c r="AH32" s="18"/>
-      <c r="AI32" s="19"/>
-      <c r="AJ32" s="42" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30"/>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="30"/>
+      <c r="AG32" s="30"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="26" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C15:AI15"/>
-    <mergeCell ref="X3:AA3"/>
-    <mergeCell ref="AB3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="B2:AJ2"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C32:AH32"/>
+    <mergeCell ref="B19:AI19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="B2:AI2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C32:AI32"/>
-    <mergeCell ref="B19:AJ19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="K20:O20"/>
-    <mergeCell ref="P20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:AA20"/>
-    <mergeCell ref="AB20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C15:AH15"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2171,15 +2151,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F5A4FA6B2BBC8B459E2682DF9C757A06" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="88afc87c7fbbb82dd0863f271f11facc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54b245bf-153d-4da7-9462-feacd125614e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ad02b4e26474824515e6e2b0cbbb0eb" ns3:_="">
     <xsd:import namespace="54b245bf-153d-4da7-9462-feacd125614e"/>
@@ -2363,6 +2334,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2370,14 +2350,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CCC34A-1B5B-4CEB-AF09-9E30779E5906}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12B9926-3F4D-4491-8DA1-9A50F5398A26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2391,6 +2363,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CCC34A-1B5B-4CEB-AF09-9E30779E5906}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Buch/Zeitplanung.xlsx
+++ b/Buch/Zeitplanung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Buch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757DE148-8906-464B-B50C-47F58D8ED2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BD92D-CCF5-478A-9D07-0DFA7FD29E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F2E8FC1-35BF-4896-8BF7-A2F8537EDB2C}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -505,6 +505,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -515,12 +519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -544,11 +542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -865,16 +864,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8F039B-AE83-4F66-869E-AA40BE7D7B3B}">
   <dimension ref="B1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="23" width="3" customWidth="1"/>
-    <col min="24" max="34" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="34" width="3.140625" customWidth="1"/>
     <col min="35" max="35" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="43" max="46" width="11.42578125" customWidth="1"/>
   </cols>
@@ -922,53 +919,53 @@
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="30" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="31" t="s">
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="31" t="s">
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="31" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="31" t="s">
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="31" t="s">
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
       <c r="AH3" s="33"/>
       <c r="AI3" s="4" t="s">
         <v>12</v>
@@ -1075,12 +1072,12 @@
         <v>20</v>
       </c>
       <c r="AI4" s="4"/>
-      <c r="AQ4" s="40" t="s">
+      <c r="AQ4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="40"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
     </row>
     <row r="5" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -1251,7 +1248,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="42"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="20"/>
       <c r="R9" s="20"/>
       <c r="S9" s="20"/>
@@ -1329,8 +1326,8 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
@@ -1425,7 +1422,7 @@
       <c r="AI13" s="10"/>
     </row>
     <row r="14" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="13"/>
@@ -1459,45 +1456,45 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="41"/>
+      <c r="AH14" s="28"/>
       <c r="AI14" s="11"/>
     </row>
     <row r="15" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="29" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
       <c r="AI15" s="26" t="s">
         <v>28</v>
       </c>
@@ -1860,13 +1857,13 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -1946,7 +1943,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-      <c r="R28" s="42"/>
+      <c r="R28" s="1"/>
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
@@ -1980,7 +1977,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="42"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="20"/>
       <c r="P29" s="20"/>
       <c r="Q29" s="20"/>
@@ -2042,7 +2039,7 @@
       <c r="AI30" s="10"/>
     </row>
     <row r="31" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="13"/>
@@ -2076,44 +2073,44 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="21"/>
-      <c r="AH31" s="41"/>
+      <c r="AH31" s="28"/>
       <c r="AI31" s="11"/>
     </row>
     <row r="32" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
-      <c r="AB32" s="30"/>
-      <c r="AC32" s="30"/>
-      <c r="AD32" s="30"/>
-      <c r="AE32" s="30"/>
-      <c r="AF32" s="30"/>
-      <c r="AG32" s="30"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
       <c r="AH32" s="33"/>
       <c r="AI32" s="26" t="s">
         <v>27</v>
@@ -2121,6 +2118,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C15:AH15"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="B2:AI2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C32:AH32"/>
     <mergeCell ref="B19:AI19"/>
@@ -2132,25 +2140,23 @@
     <mergeCell ref="W20:Z20"/>
     <mergeCell ref="AA20:AD20"/>
     <mergeCell ref="AE20:AH20"/>
-    <mergeCell ref="B2:AI2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C15:AH15"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F5A4FA6B2BBC8B459E2682DF9C757A06" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="88afc87c7fbbb82dd0863f271f11facc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54b245bf-153d-4da7-9462-feacd125614e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ad02b4e26474824515e6e2b0cbbb0eb" ns3:_="">
     <xsd:import namespace="54b245bf-153d-4da7-9462-feacd125614e"/>
@@ -2334,15 +2340,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2350,6 +2347,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CCC34A-1B5B-4CEB-AF09-9E30779E5906}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12B9926-3F4D-4491-8DA1-9A50F5398A26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2363,14 +2368,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CCC34A-1B5B-4CEB-AF09-9E30779E5906}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Buch/Zeitplanung.xlsx
+++ b/Buch/Zeitplanung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Buch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1BD92D-CCF5-478A-9D07-0DFA7FD29E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2543E6ED-51F3-4FD3-8C1A-D4BB9488E6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4F2E8FC1-35BF-4896-8BF7-A2F8537EDB2C}"/>
   </bookViews>
@@ -471,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -500,7 +500,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
@@ -519,6 +518,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -542,12 +547,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -864,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8F039B-AE83-4F66-869E-AA40BE7D7B3B}">
   <dimension ref="B1:AT32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,95 +879,95 @@
   <sheetData>
     <row r="1" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="36"/>
+      <c r="AI2" s="37"/>
     </row>
     <row r="3" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="32" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41" t="s">
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="41" t="s">
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="41" t="s">
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="41" t="s">
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="41" t="s">
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="33"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="34"/>
       <c r="AI3" s="4" t="s">
         <v>12</v>
       </c>
@@ -978,106 +979,106 @@
       <c r="C4" s="6">
         <v>41</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>42</v>
       </c>
       <c r="E4" s="6">
         <v>43</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>44</v>
       </c>
       <c r="G4" s="6">
         <v>45</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>46</v>
       </c>
       <c r="I4" s="6">
         <v>47</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>48</v>
       </c>
       <c r="K4" s="6">
         <v>49</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>50</v>
       </c>
       <c r="M4" s="6">
         <v>51</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>52</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>1</v>
       </c>
       <c r="P4" s="6">
         <v>2</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>3</v>
       </c>
       <c r="R4" s="6">
         <v>4</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>5</v>
       </c>
       <c r="T4" s="6">
         <v>6</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>7</v>
       </c>
       <c r="V4" s="6">
         <v>8</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <v>9</v>
       </c>
       <c r="X4" s="6">
         <v>10</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <v>11</v>
       </c>
       <c r="Z4" s="6">
         <v>12</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <v>13</v>
       </c>
       <c r="AB4" s="6">
         <v>14</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <v>15</v>
       </c>
       <c r="AD4" s="6">
         <v>16</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <v>17</v>
       </c>
       <c r="AF4" s="6">
         <v>18</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="2">
         <v>19</v>
       </c>
       <c r="AH4" s="6">
         <v>20</v>
       </c>
       <c r="AI4" s="4"/>
-      <c r="AQ4" s="27" t="s">
+      <c r="AQ4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
     </row>
     <row r="5" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -1107,14 +1108,14 @@
       <c r="X5" s="23"/>
       <c r="Y5" s="23"/>
       <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="24"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="41"/>
+      <c r="AF5" s="41"/>
+      <c r="AG5" s="41"/>
+      <c r="AH5" s="42"/>
       <c r="AI5" s="9"/>
     </row>
     <row r="6" spans="2:46" x14ac:dyDescent="0.25">
@@ -1159,7 +1160,7 @@
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -1422,7 +1423,7 @@
       <c r="AI13" s="10"/>
     </row>
     <row r="14" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="13"/>
@@ -1456,140 +1457,140 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
       <c r="AG14" s="21"/>
-      <c r="AH14" s="28"/>
+      <c r="AH14" s="27"/>
       <c r="AI14" s="11"/>
     </row>
     <row r="15" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="26" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="31"/>
+      <c r="AF15" s="31"/>
+      <c r="AG15" s="31"/>
+      <c r="AH15" s="31"/>
+      <c r="AI15" s="25" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="35"/>
-      <c r="AE19" s="35"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="37"/>
     </row>
     <row r="20" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38" t="s">
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38" t="s">
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38" t="s">
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38" t="s">
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38" t="s">
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38" t="s">
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="40"/>
       <c r="AI20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1601,94 +1602,94 @@
       <c r="C21" s="2">
         <v>40</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>41</v>
       </c>
       <c r="E21" s="2">
         <v>42</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>43</v>
       </c>
       <c r="G21" s="2">
         <v>44</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>45</v>
       </c>
       <c r="I21" s="6">
         <v>46</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>47</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>49</v>
       </c>
       <c r="L21" s="6">
         <v>50</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>51</v>
       </c>
       <c r="N21" s="6">
         <v>52</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>1</v>
       </c>
       <c r="P21" s="6">
         <v>2</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="2">
         <v>3</v>
       </c>
       <c r="R21" s="6">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="2">
         <v>5</v>
       </c>
       <c r="T21" s="6">
         <v>6</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="2">
         <v>7</v>
       </c>
       <c r="V21" s="6">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="2">
         <v>9</v>
       </c>
       <c r="X21" s="6">
         <v>10</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="2">
         <v>11</v>
       </c>
       <c r="Z21" s="6">
         <v>12</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="2">
         <v>13</v>
       </c>
       <c r="AB21" s="6">
         <v>14</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="2">
         <v>15</v>
       </c>
       <c r="AD21" s="6">
         <v>16</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="2">
         <v>17</v>
       </c>
       <c r="AF21" s="6">
         <v>18</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG21" s="2">
         <v>19</v>
       </c>
       <c r="AH21" s="6">
@@ -2039,7 +2040,7 @@
       <c r="AI30" s="10"/>
     </row>
     <row r="31" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="13"/>
@@ -2073,62 +2074,51 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
       <c r="AG31" s="21"/>
-      <c r="AH31" s="28"/>
+      <c r="AH31" s="27"/>
       <c r="AI31" s="11"/>
     </row>
     <row r="32" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="31" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="32"/>
-      <c r="Z32" s="32"/>
-      <c r="AA32" s="32"/>
-      <c r="AB32" s="32"/>
-      <c r="AC32" s="32"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="26" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="25" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C15:AH15"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AD3"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="B2:AI2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:R3"/>
-    <mergeCell ref="S3:V3"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C32:AH32"/>
     <mergeCell ref="B19:AI19"/>
@@ -2140,6 +2130,17 @@
     <mergeCell ref="W20:Z20"/>
     <mergeCell ref="AA20:AD20"/>
     <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="B2:AI2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C15:AH15"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2148,15 +2149,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F5A4FA6B2BBC8B459E2682DF9C757A06" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="88afc87c7fbbb82dd0863f271f11facc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="54b245bf-153d-4da7-9462-feacd125614e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ad02b4e26474824515e6e2b0cbbb0eb" ns3:_="">
     <xsd:import namespace="54b245bf-153d-4da7-9462-feacd125614e"/>
@@ -2340,6 +2332,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2347,14 +2348,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CCC34A-1B5B-4CEB-AF09-9E30779E5906}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B12B9926-3F4D-4491-8DA1-9A50F5398A26}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2368,6 +2361,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9CCC34A-1B5B-4CEB-AF09-9E30779E5906}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
